--- a/arbeitszeit/Zeiterfassung_Gruppe05_Casuscelli_Luca.xlsx
+++ b/arbeitszeit/Zeiterfassung_Gruppe05_Casuscelli_Luca.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\OneDrive - Hochschule Luzern\2020_FS\CIP\Arbeitszeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\OneDrive\Dokumente\GitHub\cip\arbeitszeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{FDA2ED33-EA2F-467D-BAC2-A411B6ABECF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{CED327DD-F473-4ECA-BAD3-A7B5F1772B1C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05F7178-0DFC-40A3-A153-4620D8FEB4FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{D08F1E28-3128-4FC2-A3B4-4609B8070E4C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Zeit CIP Projekt</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Tableau Prep Data Cleaning &amp; processing steps weiteren Datensatz einfügen</t>
+  </si>
+  <si>
+    <t>Finalisierung</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,13 +606,24 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="3">
         <f>SUM(B4:B29)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
